--- a/data/pca/factorExposure/factorExposure_2018-12-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.09074893440551693</v>
+        <v>0.05826657696563181</v>
       </c>
       <c r="C2">
-        <v>-0.03307243752424352</v>
+        <v>-0.03321324114310636</v>
       </c>
       <c r="D2">
-        <v>0.0725453540215823</v>
+        <v>-0.01826780807090629</v>
       </c>
       <c r="E2">
-        <v>0.01318678189726056</v>
+        <v>0.03496806176519354</v>
       </c>
       <c r="F2">
-        <v>0.1196663039168284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.117390123624325</v>
+      </c>
+      <c r="G2">
+        <v>0.04918666150882752</v>
+      </c>
+      <c r="H2">
+        <v>0.07150254897315994</v>
+      </c>
+      <c r="I2">
+        <v>0.112856874602212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1919551769095314</v>
+        <v>0.1409494822573116</v>
       </c>
       <c r="C3">
-        <v>0.09821316876204883</v>
+        <v>-0.0853884756235961</v>
       </c>
       <c r="D3">
-        <v>0.1323605452808916</v>
+        <v>-8.61281716015178e-05</v>
       </c>
       <c r="E3">
-        <v>-0.01756518876841806</v>
+        <v>-0.03321116428701374</v>
       </c>
       <c r="F3">
-        <v>0.3901923999842652</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3915704174436301</v>
+      </c>
+      <c r="G3">
+        <v>0.2596424056375675</v>
+      </c>
+      <c r="H3">
+        <v>0.1494284578603002</v>
+      </c>
+      <c r="I3">
+        <v>0.4032351439595843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0821283845067005</v>
+        <v>0.06451770231791341</v>
       </c>
       <c r="C4">
-        <v>0.001197644921124767</v>
+        <v>-0.04680098973213716</v>
       </c>
       <c r="D4">
-        <v>0.0684477974808016</v>
+        <v>0.01315722559280485</v>
       </c>
       <c r="E4">
-        <v>-0.03336240466036575</v>
+        <v>0.03803401140357447</v>
       </c>
       <c r="F4">
-        <v>0.07562496829125169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07904425613000755</v>
+      </c>
+      <c r="G4">
+        <v>0.01414184242423693</v>
+      </c>
+      <c r="H4">
+        <v>0.04829005351334278</v>
+      </c>
+      <c r="I4">
+        <v>0.0646815485448439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.000456746334428463</v>
+        <v>0.02765780818650988</v>
       </c>
       <c r="C6">
-        <v>-0.001015841654656999</v>
+        <v>-0.01398856628042201</v>
       </c>
       <c r="D6">
-        <v>0.0006062844550518379</v>
+        <v>0.003442493821267769</v>
       </c>
       <c r="E6">
-        <v>-0.0001918962890056606</v>
+        <v>0.006948545282942704</v>
       </c>
       <c r="F6">
-        <v>0.0005889347390227183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.009510290724322972</v>
+      </c>
+      <c r="G6">
+        <v>-0.01924881401174891</v>
+      </c>
+      <c r="H6">
+        <v>-0.01751720928305057</v>
+      </c>
+      <c r="I6">
+        <v>0.004978105069936576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03914570786501871</v>
+        <v>0.03208139417585532</v>
       </c>
       <c r="C7">
-        <v>-0.009220065130306413</v>
+        <v>-0.01899826354585421</v>
       </c>
       <c r="D7">
-        <v>0.0498493353057151</v>
+        <v>0.03485556057166063</v>
       </c>
       <c r="E7">
-        <v>0.001831358278454745</v>
+        <v>0.0276684264444364</v>
       </c>
       <c r="F7">
-        <v>0.0804637052866482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0528357676047385</v>
+      </c>
+      <c r="G7">
+        <v>0.04792218000055958</v>
+      </c>
+      <c r="H7">
+        <v>0.01250032797621582</v>
+      </c>
+      <c r="I7">
+        <v>0.03654148416504334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04071316893704945</v>
+        <v>0.01852416355722755</v>
       </c>
       <c r="C8">
-        <v>0.02389582170396747</v>
+        <v>-0.04632803760931935</v>
       </c>
       <c r="D8">
-        <v>0.05412354673873581</v>
+        <v>0.01041581556333722</v>
       </c>
       <c r="E8">
-        <v>-0.03070154094662733</v>
+        <v>0.01409851484291082</v>
       </c>
       <c r="F8">
-        <v>0.07008573604689976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07293829734908332</v>
+      </c>
+      <c r="G8">
+        <v>0.03623031240445573</v>
+      </c>
+      <c r="H8">
+        <v>0.04407796454892456</v>
+      </c>
+      <c r="I8">
+        <v>0.06234281763125983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.06841186473392451</v>
+        <v>0.05387619669706296</v>
       </c>
       <c r="C9">
-        <v>-0.007948144275509664</v>
+        <v>-0.03927412451611451</v>
       </c>
       <c r="D9">
-        <v>0.06264301590598037</v>
+        <v>0.01603873451131599</v>
       </c>
       <c r="E9">
-        <v>-0.04784104890308986</v>
+        <v>0.03329861834085513</v>
       </c>
       <c r="F9">
-        <v>0.06152266899556021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.08095275797195609</v>
+      </c>
+      <c r="G9">
+        <v>0.01017791216329511</v>
+      </c>
+      <c r="H9">
+        <v>0.04760533851472605</v>
+      </c>
+      <c r="I9">
+        <v>0.03855584421145666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03841294357848932</v>
+        <v>0.05001241173564541</v>
       </c>
       <c r="C10">
-        <v>-0.09764939861472234</v>
+        <v>0.1647431341278048</v>
       </c>
       <c r="D10">
-        <v>-0.1219513406196849</v>
+        <v>-0.009561186030400197</v>
       </c>
       <c r="E10">
-        <v>0.05071303685592241</v>
+        <v>-0.03493451979369603</v>
       </c>
       <c r="F10">
-        <v>0.06874012117967959</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.05497267586380628</v>
+      </c>
+      <c r="G10">
+        <v>0.01694554931397815</v>
+      </c>
+      <c r="H10">
+        <v>0.03784368454459319</v>
+      </c>
+      <c r="I10">
+        <v>0.03695378274232174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05169897442602347</v>
+        <v>0.04385667291847081</v>
       </c>
       <c r="C11">
-        <v>0.006674622853305156</v>
+        <v>-0.03323118719884437</v>
       </c>
       <c r="D11">
-        <v>0.02370957545219246</v>
+        <v>-0.00653136725318631</v>
       </c>
       <c r="E11">
-        <v>0.003831002156018117</v>
+        <v>0.007958662521822401</v>
       </c>
       <c r="F11">
-        <v>0.04850519053772938</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03869089714654244</v>
+      </c>
+      <c r="G11">
+        <v>-0.004822035291994273</v>
+      </c>
+      <c r="H11">
+        <v>0.01300121280660381</v>
+      </c>
+      <c r="I11">
+        <v>0.03448747046391369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04338776704776508</v>
+        <v>0.04104106540956745</v>
       </c>
       <c r="C12">
-        <v>0.009688169619649687</v>
+        <v>-0.03383967433748494</v>
       </c>
       <c r="D12">
-        <v>0.02615808080794175</v>
+        <v>0.006314583389405164</v>
       </c>
       <c r="E12">
-        <v>-0.01582850249081998</v>
+        <v>0.01135013157058646</v>
       </c>
       <c r="F12">
-        <v>0.03880913490420117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01699620541590593</v>
+      </c>
+      <c r="G12">
+        <v>0.002864318699341257</v>
+      </c>
+      <c r="H12">
+        <v>0.006587264423864544</v>
+      </c>
+      <c r="I12">
+        <v>0.02509901387202902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.05103364673515044</v>
+        <v>0.03783037083860658</v>
       </c>
       <c r="C13">
-        <v>0.006857483668201008</v>
+        <v>-0.02773965266043047</v>
       </c>
       <c r="D13">
-        <v>0.04224329004134814</v>
+        <v>-0.01562017134091339</v>
       </c>
       <c r="E13">
-        <v>0.0257179770214388</v>
+        <v>0.008293868610385211</v>
       </c>
       <c r="F13">
-        <v>0.111980029398879</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.09606234181376162</v>
+      </c>
+      <c r="G13">
+        <v>0.02830366511206065</v>
+      </c>
+      <c r="H13">
+        <v>0.0399144115070667</v>
+      </c>
+      <c r="I13">
+        <v>0.07743605075531232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02671284544345905</v>
+        <v>0.02180183155413816</v>
       </c>
       <c r="C14">
-        <v>-0.004177326682125227</v>
+        <v>-0.02160376728091262</v>
       </c>
       <c r="D14">
-        <v>0.04723830299434737</v>
+        <v>0.005321575856255502</v>
       </c>
       <c r="E14">
-        <v>-0.008248246830122494</v>
+        <v>0.02831371227279807</v>
       </c>
       <c r="F14">
-        <v>0.03176136799611202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03931698377486186</v>
+      </c>
+      <c r="G14">
+        <v>0.04993373561978798</v>
+      </c>
+      <c r="H14">
+        <v>0.02913703640886398</v>
+      </c>
+      <c r="I14">
+        <v>0.0167072247169739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04202391487836307</v>
+        <v>0.03720534599417356</v>
       </c>
       <c r="C16">
-        <v>0.01380704236545839</v>
+        <v>-0.03382013226362057</v>
       </c>
       <c r="D16">
-        <v>0.02187273845618752</v>
+        <v>-0.0007119604193371632</v>
       </c>
       <c r="E16">
-        <v>-0.001579986408295316</v>
+        <v>0.005816438855265368</v>
       </c>
       <c r="F16">
-        <v>0.03887154429679546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03447987959794901</v>
+      </c>
+      <c r="G16">
+        <v>0.003190928107525359</v>
+      </c>
+      <c r="H16">
+        <v>0.007512134076646238</v>
+      </c>
+      <c r="I16">
+        <v>0.03523855678572579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.06211875094149004</v>
+        <v>0.04821411460385445</v>
       </c>
       <c r="C19">
-        <v>0.02838602040915956</v>
+        <v>-0.0454363424308011</v>
       </c>
       <c r="D19">
-        <v>0.04465666151548328</v>
+        <v>-0.004933071214033489</v>
       </c>
       <c r="E19">
-        <v>0.0003080219253912905</v>
+        <v>0.0132100248700591</v>
       </c>
       <c r="F19">
-        <v>0.09922812805190344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09485736593961842</v>
+      </c>
+      <c r="G19">
+        <v>0.0469031613119123</v>
+      </c>
+      <c r="H19">
+        <v>0.03473692083903104</v>
+      </c>
+      <c r="I19">
+        <v>0.0804674219964409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.02266084443843657</v>
+        <v>0.0141330712941861</v>
       </c>
       <c r="C20">
-        <v>0.001338661139675229</v>
+        <v>-0.02381933581028216</v>
       </c>
       <c r="D20">
-        <v>0.05005855864184753</v>
+        <v>0.00431748861277157</v>
       </c>
       <c r="E20">
-        <v>-0.02189778220282987</v>
+        <v>0.01907003950864538</v>
       </c>
       <c r="F20">
-        <v>0.0701445742392932</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06119188300508636</v>
+      </c>
+      <c r="G20">
+        <v>0.05931535301080229</v>
+      </c>
+      <c r="H20">
+        <v>0.02382971929028086</v>
+      </c>
+      <c r="I20">
+        <v>0.06854728432287503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.02462163913588996</v>
+        <v>0.0289705833523646</v>
       </c>
       <c r="C21">
-        <v>0.02127364352862584</v>
+        <v>-0.02421988764492835</v>
       </c>
       <c r="D21">
-        <v>0.03182877754506505</v>
+        <v>0.009922454878971363</v>
       </c>
       <c r="E21">
-        <v>0.006569829044112035</v>
+        <v>0.001522135372215451</v>
       </c>
       <c r="F21">
-        <v>0.09603562787825738</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.0733931579392935</v>
+      </c>
+      <c r="G21">
+        <v>-5.890855977469105e-05</v>
+      </c>
+      <c r="H21">
+        <v>0.05158804745136415</v>
+      </c>
+      <c r="I21">
+        <v>0.00721185821573497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.04126982109122987</v>
+        <v>0.03608319552330693</v>
       </c>
       <c r="C24">
-        <v>0.008059179589451997</v>
+        <v>-0.02951105732278336</v>
       </c>
       <c r="D24">
-        <v>0.02463116006703917</v>
+        <v>-0.0003678524919725391</v>
       </c>
       <c r="E24">
-        <v>-0.005159096515005505</v>
+        <v>0.007743956824382171</v>
       </c>
       <c r="F24">
-        <v>0.04928938580517354</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.0370861639466601</v>
+      </c>
+      <c r="G24">
+        <v>-0.001700456250147359</v>
+      </c>
+      <c r="H24">
+        <v>0.007881315332778928</v>
+      </c>
+      <c r="I24">
+        <v>0.03683224365347568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.04405712673169637</v>
+        <v>0.04360271614999103</v>
       </c>
       <c r="C25">
-        <v>0.00609072033867188</v>
+        <v>-0.02713214345115827</v>
       </c>
       <c r="D25">
-        <v>0.02266813897959771</v>
+        <v>-0.001252173306448555</v>
       </c>
       <c r="E25">
-        <v>-0.004881592575326446</v>
+        <v>0.009037990482655613</v>
       </c>
       <c r="F25">
-        <v>0.04711508882581335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04519058161260626</v>
+      </c>
+      <c r="G25">
+        <v>-0.01026862593596822</v>
+      </c>
+      <c r="H25">
+        <v>0.01085791005865909</v>
+      </c>
+      <c r="I25">
+        <v>0.03003104285843223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02156203040666761</v>
+        <v>0.01281884551804471</v>
       </c>
       <c r="C26">
-        <v>0.01725268087902051</v>
+        <v>-0.02836196406048419</v>
       </c>
       <c r="D26">
-        <v>0.04508892679861557</v>
+        <v>-0.00518039494202759</v>
       </c>
       <c r="E26">
-        <v>0.01604684256498429</v>
+        <v>0.001041843490959722</v>
       </c>
       <c r="F26">
-        <v>0.04195548551937025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04730909805818727</v>
+      </c>
+      <c r="G26">
+        <v>0.02785684626052127</v>
+      </c>
+      <c r="H26">
+        <v>0.01608814406504898</v>
+      </c>
+      <c r="I26">
+        <v>0.03586029411192587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1074098061296406</v>
+        <v>0.0621032235324172</v>
       </c>
       <c r="C27">
-        <v>-0.01456035538790736</v>
+        <v>-0.02083277933814757</v>
       </c>
       <c r="D27">
-        <v>0.04791442870270614</v>
+        <v>0.002212634593295219</v>
       </c>
       <c r="E27">
-        <v>-0.0265198111599779</v>
+        <v>0.02595152621562979</v>
       </c>
       <c r="F27">
-        <v>0.06117358224462906</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.04846106923865199</v>
+      </c>
+      <c r="G27">
+        <v>0.02792783801797414</v>
+      </c>
+      <c r="H27">
+        <v>0.03128975246633644</v>
+      </c>
+      <c r="I27">
+        <v>0.02228847187284048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.0479939458900835</v>
+        <v>0.07030482916940803</v>
       </c>
       <c r="C28">
-        <v>-0.1390375762328123</v>
+        <v>0.2486018632254462</v>
       </c>
       <c r="D28">
-        <v>-0.2048552830864271</v>
+        <v>-0.005315195717616572</v>
       </c>
       <c r="E28">
-        <v>0.06005986760286047</v>
+        <v>-0.0520876750229496</v>
       </c>
       <c r="F28">
-        <v>0.03787397158108934</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03368661574785801</v>
+      </c>
+      <c r="G28">
+        <v>0.03789659438866703</v>
+      </c>
+      <c r="H28">
+        <v>0.04003857498238647</v>
+      </c>
+      <c r="I28">
+        <v>0.05997726503743933</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02837393002062921</v>
+        <v>0.02231261507804472</v>
       </c>
       <c r="C29">
-        <v>-0.003489033416592114</v>
+        <v>-0.02245553402225613</v>
       </c>
       <c r="D29">
-        <v>0.04692447765022741</v>
+        <v>0.008276706321240768</v>
       </c>
       <c r="E29">
-        <v>-0.02046654687352537</v>
+        <v>0.03057219520309486</v>
       </c>
       <c r="F29">
-        <v>0.02758062943120876</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03640208541304547</v>
+      </c>
+      <c r="G29">
+        <v>0.05093516571688673</v>
+      </c>
+      <c r="H29">
+        <v>0.03574638753078677</v>
+      </c>
+      <c r="I29">
+        <v>0.001923837858669228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1031387139155692</v>
+        <v>0.08388682243014717</v>
       </c>
       <c r="C30">
-        <v>-0.01659989161362602</v>
+        <v>-0.05069835620649774</v>
       </c>
       <c r="D30">
-        <v>0.0599613292489871</v>
+        <v>-0.04136426155011277</v>
       </c>
       <c r="E30">
-        <v>0.002139677492571049</v>
+        <v>0.03279684448169837</v>
       </c>
       <c r="F30">
-        <v>0.1083381380871004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1021824340148483</v>
+      </c>
+      <c r="G30">
+        <v>0.01291945064357745</v>
+      </c>
+      <c r="H30">
+        <v>-0.0008248580738807683</v>
+      </c>
+      <c r="I30">
+        <v>0.02408193319378711</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06251520983478696</v>
+        <v>0.05719815053614533</v>
       </c>
       <c r="C31">
-        <v>-0.00388921314628549</v>
+        <v>-0.02225504565867815</v>
       </c>
       <c r="D31">
-        <v>0.04025690491069067</v>
+        <v>-0.008949058879732325</v>
       </c>
       <c r="E31">
-        <v>0.03015901386624873</v>
+        <v>0.02345176672076321</v>
       </c>
       <c r="F31">
-        <v>-0.02184639367720327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.000102462111093939</v>
+      </c>
+      <c r="G31">
+        <v>0.03441175646773905</v>
+      </c>
+      <c r="H31">
+        <v>0.05005720499880884</v>
+      </c>
+      <c r="I31">
+        <v>0.01499027597264985</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.05793923968271903</v>
+        <v>0.03416814761448599</v>
       </c>
       <c r="C32">
-        <v>0.01125397978473355</v>
+        <v>-0.04325924194099087</v>
       </c>
       <c r="D32">
-        <v>0.05861125865909089</v>
+        <v>0.01544222962328961</v>
       </c>
       <c r="E32">
-        <v>-0.02022425490554053</v>
+        <v>0.0340292336608632</v>
       </c>
       <c r="F32">
-        <v>0.09949509682647106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08163192477705612</v>
+      </c>
+      <c r="G32">
+        <v>0.02718375370484904</v>
+      </c>
+      <c r="H32">
+        <v>0.03533680666245357</v>
+      </c>
+      <c r="I32">
+        <v>0.06072681585537631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0549082103096605</v>
+        <v>0.04667736231212559</v>
       </c>
       <c r="C33">
-        <v>0.02476115430064183</v>
+        <v>-0.05369061506876565</v>
       </c>
       <c r="D33">
-        <v>0.06978760509941598</v>
+        <v>-0.02042717219985641</v>
       </c>
       <c r="E33">
-        <v>0.005619814018882153</v>
+        <v>0.006000432761605889</v>
       </c>
       <c r="F33">
-        <v>0.0705642049794621</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07298347739563638</v>
+      </c>
+      <c r="G33">
+        <v>0.03256570182800871</v>
+      </c>
+      <c r="H33">
+        <v>0.04424041747357516</v>
+      </c>
+      <c r="I33">
+        <v>0.03605001368881681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04273235641609812</v>
+        <v>0.03891575230498437</v>
       </c>
       <c r="C34">
-        <v>0.004415566451803947</v>
+        <v>-0.035989124583715</v>
       </c>
       <c r="D34">
-        <v>0.03305378115192168</v>
+        <v>0.004754221839902669</v>
       </c>
       <c r="E34">
-        <v>-0.008055988074840261</v>
+        <v>0.0177835730986867</v>
       </c>
       <c r="F34">
-        <v>0.04107473559236711</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03828661083609802</v>
+      </c>
+      <c r="G34">
+        <v>-0.002493719910836357</v>
+      </c>
+      <c r="H34">
+        <v>0.009421912929815165</v>
+      </c>
+      <c r="I34">
+        <v>0.03654411105212627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01543127731652498</v>
+        <v>0.01570456069858585</v>
       </c>
       <c r="C36">
-        <v>-0.006762768751633004</v>
+        <v>-0.003927063000241169</v>
       </c>
       <c r="D36">
-        <v>0.01473612863954646</v>
+        <v>0.003194471558680217</v>
       </c>
       <c r="E36">
-        <v>-0.004984684990585468</v>
+        <v>0.009839204752934066</v>
       </c>
       <c r="F36">
-        <v>0.02450680197628361</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02797352106435008</v>
+      </c>
+      <c r="G36">
+        <v>0.02429957239551979</v>
+      </c>
+      <c r="H36">
+        <v>0.03090677298951153</v>
+      </c>
+      <c r="I36">
+        <v>-0.009565188952184391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.03197632066285782</v>
+        <v>0.03082556059958231</v>
       </c>
       <c r="C38">
-        <v>-0.005743638808686639</v>
+        <v>-0.01182914860795754</v>
       </c>
       <c r="D38">
-        <v>0.01537128246763554</v>
+        <v>0.002682421427433427</v>
       </c>
       <c r="E38">
-        <v>-0.01466869527864706</v>
+        <v>0.003772716199649384</v>
       </c>
       <c r="F38">
-        <v>0.02755348026325461</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04861684839155313</v>
+      </c>
+      <c r="G38">
+        <v>0.01026713837903299</v>
+      </c>
+      <c r="H38">
+        <v>0.03228564649350708</v>
+      </c>
+      <c r="I38">
+        <v>-0.003563055563992461</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.06412029756770499</v>
+        <v>0.04930923123665751</v>
       </c>
       <c r="C39">
-        <v>0.002968130766488386</v>
+        <v>-0.05026549741270395</v>
       </c>
       <c r="D39">
-        <v>0.03898301654944674</v>
+        <v>-0.006457298055853673</v>
       </c>
       <c r="E39">
-        <v>0.009439389238472281</v>
+        <v>0.01980641339424594</v>
       </c>
       <c r="F39">
-        <v>0.04150671777511478</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05736790080707131</v>
+      </c>
+      <c r="G39">
+        <v>-0.01373081962203389</v>
+      </c>
+      <c r="H39">
+        <v>0.02116341367657352</v>
+      </c>
+      <c r="I39">
+        <v>0.01977901550623625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.06173348644656443</v>
+        <v>0.04937507224510899</v>
       </c>
       <c r="C40">
-        <v>-0.01038150858320369</v>
+        <v>-0.04107433627024908</v>
       </c>
       <c r="D40">
-        <v>0.06580360966091199</v>
+        <v>-0.02281640288083302</v>
       </c>
       <c r="E40">
-        <v>0.03029488258057658</v>
+        <v>0.02365124183990606</v>
       </c>
       <c r="F40">
-        <v>0.1005268869799905</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.08819328032967028</v>
+      </c>
+      <c r="G40">
+        <v>0.02850086254887844</v>
+      </c>
+      <c r="H40">
+        <v>0.03948432506010945</v>
+      </c>
+      <c r="I40">
+        <v>0.1150576757759968</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.004949588665124314</v>
+        <v>0.001073645270579491</v>
       </c>
       <c r="C41">
-        <v>0.004416779119655855</v>
+        <v>-0.005317753926152017</v>
       </c>
       <c r="D41">
-        <v>0.02673748250613248</v>
+        <v>-0.001449139322320887</v>
       </c>
       <c r="E41">
-        <v>-0.002886264632725546</v>
+        <v>0.007683153989657223</v>
       </c>
       <c r="F41">
-        <v>-0.004668264407008336</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0103425834392973</v>
+      </c>
+      <c r="G41">
+        <v>0.0319444425499555</v>
+      </c>
+      <c r="H41">
+        <v>0.04696800835823759</v>
+      </c>
+      <c r="I41">
+        <v>0.001486205175285128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.2299895053835965</v>
+        <v>0.2090816388212181</v>
       </c>
       <c r="C42">
-        <v>0.8365087808358682</v>
+        <v>-0.2838913218857285</v>
       </c>
       <c r="D42">
-        <v>-0.3868199761844142</v>
+        <v>-0.0331952601001897</v>
       </c>
       <c r="E42">
-        <v>0.2256829605099021</v>
+        <v>-0.8999983581534317</v>
       </c>
       <c r="F42">
-        <v>-0.07349054901021171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1850160256968835</v>
+      </c>
+      <c r="G42">
+        <v>0.008325620919988798</v>
+      </c>
+      <c r="H42">
+        <v>-0.01187391183604838</v>
+      </c>
+      <c r="I42">
+        <v>0.03712110522835953</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.004772231574668464</v>
+        <v>0.004040711795452709</v>
       </c>
       <c r="C43">
-        <v>0.005313827120021836</v>
+        <v>-0.007065275305023298</v>
       </c>
       <c r="D43">
-        <v>0.02942966579078249</v>
+        <v>-0.004061396925981907</v>
       </c>
       <c r="E43">
-        <v>0.0006625123540714373</v>
+        <v>0.005994242846131036</v>
       </c>
       <c r="F43">
-        <v>0.02393270250133894</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.02072382263714939</v>
+      </c>
+      <c r="G43">
+        <v>0.02888963521288596</v>
+      </c>
+      <c r="H43">
+        <v>0.02673745300579309</v>
+      </c>
+      <c r="I43">
+        <v>0.01012253639780101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.03517471202780671</v>
+        <v>0.02363459645228035</v>
       </c>
       <c r="C44">
-        <v>0.01527523565169884</v>
+        <v>-0.03805747778226831</v>
       </c>
       <c r="D44">
-        <v>0.06425678029222651</v>
+        <v>-0.0002073492823973075</v>
       </c>
       <c r="E44">
-        <v>-0.000257194651162869</v>
+        <v>0.01039447166314835</v>
       </c>
       <c r="F44">
-        <v>0.1229964787434274</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1199799015592422</v>
+      </c>
+      <c r="G44">
+        <v>0.07678130502781934</v>
+      </c>
+      <c r="H44">
+        <v>0.07656834185125454</v>
+      </c>
+      <c r="I44">
+        <v>0.05510500576050067</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.03070224513969282</v>
+        <v>0.02272933207945524</v>
       </c>
       <c r="C46">
-        <v>0.004332957938166384</v>
+        <v>-0.03422399116630764</v>
       </c>
       <c r="D46">
-        <v>0.04949035202177689</v>
+        <v>-0.004999253392561449</v>
       </c>
       <c r="E46">
-        <v>-0.002448459729073438</v>
+        <v>0.03006976687854675</v>
       </c>
       <c r="F46">
-        <v>0.0194129839598197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04814803156362583</v>
+      </c>
+      <c r="G46">
+        <v>0.05092131641007924</v>
+      </c>
+      <c r="H46">
+        <v>0.0360550589801008</v>
+      </c>
+      <c r="I46">
+        <v>0.00595641034264931</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08904812309372889</v>
+        <v>0.08391476422958119</v>
       </c>
       <c r="C47">
-        <v>-0.007868387439518138</v>
+        <v>-0.02712996465742323</v>
       </c>
       <c r="D47">
-        <v>0.0454271359849172</v>
+        <v>-0.00352579138593483</v>
       </c>
       <c r="E47">
-        <v>-0.007797534664023094</v>
+        <v>0.02980993804156889</v>
       </c>
       <c r="F47">
-        <v>-0.01467617160246707</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.0157876804933425</v>
+      </c>
+      <c r="G47">
+        <v>0.06007013293532576</v>
+      </c>
+      <c r="H47">
+        <v>0.0480252651689987</v>
+      </c>
+      <c r="I47">
+        <v>0.02751312688219939</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01597594837230288</v>
+        <v>0.0198786060026537</v>
       </c>
       <c r="C48">
-        <v>0.00149227324065014</v>
+        <v>-0.01559232069545154</v>
       </c>
       <c r="D48">
-        <v>0.0346230311403122</v>
+        <v>0.0002753383882871971</v>
       </c>
       <c r="E48">
-        <v>-0.002988599337154587</v>
+        <v>0.01371565035167807</v>
       </c>
       <c r="F48">
-        <v>0.02884011537931346</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02993014729773526</v>
+      </c>
+      <c r="G48">
+        <v>0.01698281789153641</v>
+      </c>
+      <c r="H48">
+        <v>0.02208671264811692</v>
+      </c>
+      <c r="I48">
+        <v>0.009983741396034907</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.08651588411695134</v>
+        <v>0.08212606893167439</v>
       </c>
       <c r="C50">
-        <v>0.006067765461906283</v>
+        <v>-0.04222382601324632</v>
       </c>
       <c r="D50">
-        <v>0.04397304728969023</v>
+        <v>0.009636235507509873</v>
       </c>
       <c r="E50">
-        <v>0.008702538914690848</v>
+        <v>0.02380279580783312</v>
       </c>
       <c r="F50">
-        <v>-0.02280086218749196</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.00982501467236113</v>
+      </c>
+      <c r="G50">
+        <v>0.04459654017817692</v>
+      </c>
+      <c r="H50">
+        <v>0.00168643997550221</v>
+      </c>
+      <c r="I50">
+        <v>-0.008422201190219513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05370699228370817</v>
+        <v>0.03895823004353552</v>
       </c>
       <c r="C51">
-        <v>-0.01631564105455716</v>
+        <v>0.003152965848064488</v>
       </c>
       <c r="D51">
-        <v>0.02560164103173233</v>
+        <v>-0.0121182210320756</v>
       </c>
       <c r="E51">
-        <v>0.03438357441872008</v>
+        <v>0.01045852779470285</v>
       </c>
       <c r="F51">
-        <v>0.05422527946045639</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.08032754939483411</v>
+      </c>
+      <c r="G51">
+        <v>0.05166938761035837</v>
+      </c>
+      <c r="H51">
+        <v>0.06940945557325964</v>
+      </c>
+      <c r="I51">
+        <v>0.03679213324434779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1258250067881101</v>
+        <v>0.1165607612172696</v>
       </c>
       <c r="C53">
-        <v>-0.01802923636495561</v>
+        <v>-0.04626999086038876</v>
       </c>
       <c r="D53">
-        <v>0.06681427538720651</v>
+        <v>-0.004702632816707492</v>
       </c>
       <c r="E53">
-        <v>0.003480891472798375</v>
+        <v>0.05525607990377093</v>
       </c>
       <c r="F53">
-        <v>-0.06850350766271442</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.054841171579589</v>
+      </c>
+      <c r="G53">
+        <v>0.02515153954944835</v>
+      </c>
+      <c r="H53">
+        <v>0.02898999484298385</v>
+      </c>
+      <c r="I53">
+        <v>0.02959115862364297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02511827199982304</v>
+        <v>0.02650462685133443</v>
       </c>
       <c r="C54">
-        <v>-0.01420097230162762</v>
+        <v>-0.004793000802862843</v>
       </c>
       <c r="D54">
-        <v>0.03328141288468534</v>
+        <v>0.003515530967249918</v>
       </c>
       <c r="E54">
-        <v>-0.008958246449554536</v>
+        <v>0.02870598972015336</v>
       </c>
       <c r="F54">
-        <v>0.04097190472096258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03829878280066539</v>
+      </c>
+      <c r="G54">
+        <v>0.04638402341294929</v>
+      </c>
+      <c r="H54">
+        <v>0.04635148817226704</v>
+      </c>
+      <c r="I54">
+        <v>0.0003232720211539998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1048549970042037</v>
+        <v>0.0936856832803032</v>
       </c>
       <c r="C55">
-        <v>-0.01713201545090822</v>
+        <v>-0.0404971452368924</v>
       </c>
       <c r="D55">
-        <v>0.02605843672049594</v>
+        <v>0.01242189951843902</v>
       </c>
       <c r="E55">
-        <v>-0.03776722131766367</v>
+        <v>0.03978240677742016</v>
       </c>
       <c r="F55">
-        <v>-0.02892804926251232</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04310296184295215</v>
+      </c>
+      <c r="G55">
+        <v>0.04670319471316913</v>
+      </c>
+      <c r="H55">
+        <v>0.0003938494748516614</v>
+      </c>
+      <c r="I55">
+        <v>0.004448834203289041</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1631053802750674</v>
+        <v>0.1575626170167489</v>
       </c>
       <c r="C56">
-        <v>-0.06842426029841532</v>
+        <v>-0.03604481825387784</v>
       </c>
       <c r="D56">
-        <v>0.0587241728356542</v>
+        <v>-0.001261473036257441</v>
       </c>
       <c r="E56">
-        <v>-0.02264405533975312</v>
+        <v>0.0906891654812516</v>
       </c>
       <c r="F56">
-        <v>-0.1054721031141753</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09757689886103313</v>
+      </c>
+      <c r="G56">
+        <v>-0.004352630488173736</v>
+      </c>
+      <c r="H56">
+        <v>-0.02395028340966381</v>
+      </c>
+      <c r="I56">
+        <v>0.03018789260697071</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.06858310317734685</v>
+        <v>0.0575762002704049</v>
       </c>
       <c r="C57">
-        <v>0.0002737901668501608</v>
+        <v>-0.0268474288424187</v>
       </c>
       <c r="D57">
-        <v>0.04371524233125688</v>
+        <v>-0.0195802253900423</v>
       </c>
       <c r="E57">
-        <v>0.02638087797455714</v>
+        <v>0.002824774002034398</v>
       </c>
       <c r="F57">
-        <v>0.0662633832835909</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.06476129490280221</v>
+      </c>
+      <c r="G57">
+        <v>0.0165464697330036</v>
+      </c>
+      <c r="H57">
+        <v>0.02132236165746153</v>
+      </c>
+      <c r="I57">
+        <v>0.02960957619380864</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2019789877680824</v>
+        <v>0.2006241585053795</v>
       </c>
       <c r="C58">
-        <v>0.03267101629944207</v>
+        <v>-0.1220250544943487</v>
       </c>
       <c r="D58">
-        <v>0.102761437781057</v>
+        <v>-0.09731642437318755</v>
       </c>
       <c r="E58">
-        <v>0.03527199901903449</v>
+        <v>-0.02983890141952517</v>
       </c>
       <c r="F58">
-        <v>0.2363690525867426</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.367535166622507</v>
+      </c>
+      <c r="G58">
+        <v>0.3783410302661551</v>
+      </c>
+      <c r="H58">
+        <v>-0.1963202430542402</v>
+      </c>
+      <c r="I58">
+        <v>-0.7263673162340707</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.04078157739074099</v>
+        <v>0.06781779253683358</v>
       </c>
       <c r="C59">
-        <v>-0.1342843964809098</v>
+        <v>0.2068744030637605</v>
       </c>
       <c r="D59">
-        <v>-0.1459035833154064</v>
+        <v>-0.02181014954694561</v>
       </c>
       <c r="E59">
-        <v>0.04527217055890413</v>
+        <v>-0.02099235100993282</v>
       </c>
       <c r="F59">
-        <v>0.04364386997904979</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.0524363249353753</v>
+      </c>
+      <c r="G59">
+        <v>-0.005085143387376882</v>
+      </c>
+      <c r="H59">
+        <v>0.005938698568421338</v>
+      </c>
+      <c r="I59">
+        <v>0.005568123278636377</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1830554495568608</v>
+        <v>0.2007390114599161</v>
       </c>
       <c r="C60">
-        <v>-0.06605377008285079</v>
+        <v>0.04998569993547476</v>
       </c>
       <c r="D60">
-        <v>-0.01548412662676908</v>
+        <v>-0.05873242681612013</v>
       </c>
       <c r="E60">
-        <v>0.08435378201928624</v>
+        <v>0.01012788170777158</v>
       </c>
       <c r="F60">
-        <v>0.1338197032007879</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1767059380478744</v>
+      </c>
+      <c r="G60">
+        <v>-0.3398321107911417</v>
+      </c>
+      <c r="H60">
+        <v>-0.09167201669936507</v>
+      </c>
+      <c r="I60">
+        <v>0.03560089946733105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03443372660980426</v>
+        <v>0.03667252791464837</v>
       </c>
       <c r="C61">
-        <v>0.004177388215920566</v>
+        <v>-0.0348379294380082</v>
       </c>
       <c r="D61">
-        <v>0.02234299438371275</v>
+        <v>0.0005009004791098148</v>
       </c>
       <c r="E61">
-        <v>-0.007279571932918618</v>
+        <v>0.01368354973161518</v>
       </c>
       <c r="F61">
-        <v>0.04458255038842852</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.04144443227757806</v>
+      </c>
+      <c r="G61">
+        <v>-0.01989590355828649</v>
+      </c>
+      <c r="H61">
+        <v>0.007853076290177698</v>
+      </c>
+      <c r="I61">
+        <v>0.008227038999060023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.03261658421964247</v>
+        <v>0.02654851261780471</v>
       </c>
       <c r="C63">
-        <v>-0.004610815820405496</v>
+        <v>-0.02204573600745388</v>
       </c>
       <c r="D63">
-        <v>0.0318952630030313</v>
+        <v>-0.001349767787796577</v>
       </c>
       <c r="E63">
-        <v>0.002280409178105649</v>
+        <v>0.01584236787377849</v>
       </c>
       <c r="F63">
-        <v>0.05375893852356405</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.03479133273627281</v>
+      </c>
+      <c r="G63">
+        <v>0.04458238952461151</v>
+      </c>
+      <c r="H63">
+        <v>0.01903102279909066</v>
+      </c>
+      <c r="I63">
+        <v>0.02852175346858751</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05390334597321794</v>
+        <v>0.05377531884400259</v>
       </c>
       <c r="C64">
-        <v>0.00678613245831247</v>
+        <v>-0.03905928950379142</v>
       </c>
       <c r="D64">
-        <v>0.049353176383326</v>
+        <v>0.009944201081591997</v>
       </c>
       <c r="E64">
-        <v>-0.03704848639991961</v>
+        <v>0.02135367694990607</v>
       </c>
       <c r="F64">
-        <v>0.04422390547989957</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04249132834369734</v>
+      </c>
+      <c r="G64">
+        <v>0.01079900146037603</v>
+      </c>
+      <c r="H64">
+        <v>0.06649729963711062</v>
+      </c>
+      <c r="I64">
+        <v>0.04415332127254149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.0002997139723035496</v>
+        <v>0.03068569824640278</v>
       </c>
       <c r="C65">
-        <v>-0.0006807473921652985</v>
+        <v>-0.01460729693393344</v>
       </c>
       <c r="D65">
-        <v>0.0004554843581998516</v>
+        <v>0.003721299454603565</v>
       </c>
       <c r="E65">
-        <v>-9.192839328566801e-05</v>
+        <v>0.00722182706058125</v>
       </c>
       <c r="F65">
-        <v>0.0007320640409196982</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.006211964636582083</v>
+      </c>
+      <c r="G65">
+        <v>-0.02421662375344184</v>
+      </c>
+      <c r="H65">
+        <v>-0.01649570866254583</v>
+      </c>
+      <c r="I65">
+        <v>0.004929515615391308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.06395271028541016</v>
+        <v>0.05873304827146564</v>
       </c>
       <c r="C66">
-        <v>-0.003783299576976486</v>
+        <v>-0.05859727167222245</v>
       </c>
       <c r="D66">
-        <v>0.06527047321133027</v>
+        <v>-0.01361034374511358</v>
       </c>
       <c r="E66">
-        <v>-0.008711720850680702</v>
+        <v>0.04544944700047571</v>
       </c>
       <c r="F66">
-        <v>0.08134423172759243</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.07029823883922859</v>
+      </c>
+      <c r="G66">
+        <v>-0.01761369734032248</v>
+      </c>
+      <c r="H66">
+        <v>0.005641027365423238</v>
+      </c>
+      <c r="I66">
+        <v>0.05951162647505884</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.04929068617195782</v>
+        <v>0.04905800951430516</v>
       </c>
       <c r="C67">
-        <v>-0.01648509305212372</v>
+        <v>0.0007290161285810884</v>
       </c>
       <c r="D67">
-        <v>0.001752234148863292</v>
+        <v>-0.002088141344282849</v>
       </c>
       <c r="E67">
-        <v>-0.004713958259494</v>
+        <v>0.005833196614508427</v>
       </c>
       <c r="F67">
-        <v>0.03078776321845712</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03924648919842114</v>
+      </c>
+      <c r="G67">
+        <v>-0.01565184295602739</v>
+      </c>
+      <c r="H67">
+        <v>0.04014222506266366</v>
+      </c>
+      <c r="I67">
+        <v>-0.007494458835745582</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.07077944277709987</v>
+        <v>0.07844332811933326</v>
       </c>
       <c r="C68">
-        <v>-0.1391399922008689</v>
+        <v>0.2354442943523584</v>
       </c>
       <c r="D68">
-        <v>-0.1974791855864704</v>
+        <v>-0.01672689177941837</v>
       </c>
       <c r="E68">
-        <v>0.05346497766223791</v>
+        <v>-0.04047183970885843</v>
       </c>
       <c r="F68">
-        <v>0.02273791233790761</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01820339902535554</v>
+      </c>
+      <c r="G68">
+        <v>0.04706449454238532</v>
+      </c>
+      <c r="H68">
+        <v>-0.003459703780489662</v>
+      </c>
+      <c r="I68">
+        <v>-0.002707619454037386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07479700675524584</v>
+        <v>0.06859738770339581</v>
       </c>
       <c r="C69">
-        <v>-0.01470626871761641</v>
+        <v>-0.0247928223881816</v>
       </c>
       <c r="D69">
-        <v>0.03344516206153179</v>
+        <v>-0.006065496176323007</v>
       </c>
       <c r="E69">
-        <v>-0.0003827240390095191</v>
+        <v>0.03155476411113242</v>
       </c>
       <c r="F69">
-        <v>-0.003905136867959747</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.003114924927765455</v>
+      </c>
+      <c r="G69">
+        <v>0.03850787934117896</v>
+      </c>
+      <c r="H69">
+        <v>0.03406058501330612</v>
+      </c>
+      <c r="I69">
+        <v>0.01931749715089391</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.06772365985512895</v>
+        <v>0.07554430067740805</v>
       </c>
       <c r="C71">
-        <v>-0.1719295330558284</v>
+        <v>0.2596226021360273</v>
       </c>
       <c r="D71">
-        <v>-0.2346144398541535</v>
+        <v>-0.02173041630686183</v>
       </c>
       <c r="E71">
-        <v>0.09930776406564401</v>
+        <v>-0.05487330542423095</v>
       </c>
       <c r="F71">
-        <v>0.0600115511671472</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04144717844586015</v>
+      </c>
+      <c r="G71">
+        <v>0.0332287395929961</v>
+      </c>
+      <c r="H71">
+        <v>0.0184040264564407</v>
+      </c>
+      <c r="I71">
+        <v>0.02038829719288965</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.136113454089011</v>
+        <v>0.1380182947665647</v>
       </c>
       <c r="C72">
-        <v>-0.05444779612836854</v>
+        <v>-0.04179271170543979</v>
       </c>
       <c r="D72">
-        <v>0.04574472705068798</v>
+        <v>-0.0185023271440919</v>
       </c>
       <c r="E72">
-        <v>0.001172873276029278</v>
+        <v>0.07922861324395152</v>
       </c>
       <c r="F72">
-        <v>0.0800493136264834</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.101937220107953</v>
+      </c>
+      <c r="G72">
+        <v>-0.0990818829906496</v>
+      </c>
+      <c r="H72">
+        <v>-0.02898471035479495</v>
+      </c>
+      <c r="I72">
+        <v>-0.1457892571445828</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.291382107744854</v>
+        <v>0.2904641770988646</v>
       </c>
       <c r="C73">
-        <v>-0.08480596569669986</v>
+        <v>0.05387563930951446</v>
       </c>
       <c r="D73">
-        <v>-0.06710921028587778</v>
+        <v>-0.09887385563538074</v>
       </c>
       <c r="E73">
-        <v>0.1154607536856145</v>
+        <v>-0.03511286782858058</v>
       </c>
       <c r="F73">
-        <v>0.2304345549545192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2565345610791407</v>
+      </c>
+      <c r="G73">
+        <v>-0.5032030713524632</v>
+      </c>
+      <c r="H73">
+        <v>-0.1864892720147081</v>
+      </c>
+      <c r="I73">
+        <v>-0.002155497317078567</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1469470395639536</v>
+        <v>0.1419566805817716</v>
       </c>
       <c r="C74">
-        <v>-0.01654223754184894</v>
+        <v>-0.05002726186147985</v>
       </c>
       <c r="D74">
-        <v>0.04574790961896964</v>
+        <v>-0.008452729352384428</v>
       </c>
       <c r="E74">
-        <v>-0.002184144505835551</v>
+        <v>0.05360381810530779</v>
       </c>
       <c r="F74">
-        <v>-0.05615329070691844</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.07555727982852574</v>
+      </c>
+      <c r="G74">
+        <v>-0.006087666744089852</v>
+      </c>
+      <c r="H74">
+        <v>-0.02123355764371881</v>
+      </c>
+      <c r="I74">
+        <v>0.07171519856573433</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.226582864919872</v>
+        <v>0.2454318782243085</v>
       </c>
       <c r="C75">
-        <v>-0.05798154388588334</v>
+        <v>-0.05610928954422875</v>
       </c>
       <c r="D75">
-        <v>0.09497022220262352</v>
+        <v>-0.02790463616768196</v>
       </c>
       <c r="E75">
-        <v>0.007745780064138669</v>
+        <v>0.1253312077379811</v>
       </c>
       <c r="F75">
-        <v>-0.1451433177566527</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1482492880028117</v>
+      </c>
+      <c r="G75">
+        <v>0.01563358494943042</v>
+      </c>
+      <c r="H75">
+        <v>0.01116875920486891</v>
+      </c>
+      <c r="I75">
+        <v>0.02254530214380446</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2616907507433187</v>
+        <v>0.2584953277711044</v>
       </c>
       <c r="C76">
-        <v>-0.08476253528582639</v>
+        <v>-0.04635496148720362</v>
       </c>
       <c r="D76">
-        <v>0.06990501338533002</v>
+        <v>0.01139069654774592</v>
       </c>
       <c r="E76">
-        <v>-0.05629049852846989</v>
+        <v>0.1474294687308714</v>
       </c>
       <c r="F76">
-        <v>-0.1417181381532768</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1932611666390558</v>
+      </c>
+      <c r="G76">
+        <v>0.04159159700436548</v>
+      </c>
+      <c r="H76">
+        <v>-0.06509761767954268</v>
+      </c>
+      <c r="I76">
+        <v>0.02694624467861274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1402470321963372</v>
+        <v>0.1054632949756932</v>
       </c>
       <c r="C77">
-        <v>0.07634152793027014</v>
+        <v>-0.07259517399168577</v>
       </c>
       <c r="D77">
-        <v>0.03102062776127722</v>
+        <v>-0.007815312125289067</v>
       </c>
       <c r="E77">
-        <v>0.01584554230133683</v>
+        <v>-0.04673234489000958</v>
       </c>
       <c r="F77">
-        <v>0.1895322315598211</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1622734045552665</v>
+      </c>
+      <c r="G77">
+        <v>0.2211926571946213</v>
+      </c>
+      <c r="H77">
+        <v>0.03263444230096379</v>
+      </c>
+      <c r="I77">
+        <v>0.2329236685928894</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08667022468619361</v>
+        <v>0.06440599322313489</v>
       </c>
       <c r="C78">
-        <v>0.04545062217312426</v>
+        <v>-0.07180104171053792</v>
       </c>
       <c r="D78">
-        <v>0.0719826347564719</v>
+        <v>0.001520608862420532</v>
       </c>
       <c r="E78">
-        <v>-0.01566581388955117</v>
+        <v>0.0159352941979216</v>
       </c>
       <c r="F78">
-        <v>0.04848958372929145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.07626182034919352</v>
+      </c>
+      <c r="G78">
+        <v>0.01919095316559599</v>
+      </c>
+      <c r="H78">
+        <v>0.02991496101500549</v>
+      </c>
+      <c r="I78">
+        <v>0.03802739326727451</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1251600191558532</v>
+        <v>0.1459744555066925</v>
       </c>
       <c r="C80">
-        <v>0.09486077619726135</v>
+        <v>0.03824398023882963</v>
       </c>
       <c r="D80">
-        <v>-0.2942538015100895</v>
+        <v>0.9738604928563899</v>
       </c>
       <c r="E80">
-        <v>-0.9170118639188998</v>
+        <v>-0.03860907108185634</v>
       </c>
       <c r="F80">
-        <v>0.06335013678671884</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.06854338294890512</v>
+      </c>
+      <c r="G80">
+        <v>-0.06203708338547513</v>
+      </c>
+      <c r="H80">
+        <v>0.0247840616487496</v>
+      </c>
+      <c r="I80">
+        <v>-0.08577303776314291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1616502148071093</v>
+        <v>0.1814984262297646</v>
       </c>
       <c r="C81">
-        <v>-0.0478665875974847</v>
+        <v>-0.03533664174485511</v>
       </c>
       <c r="D81">
-        <v>0.05447849827777802</v>
+        <v>-0.004191044279880351</v>
       </c>
       <c r="E81">
-        <v>-0.01855041503700636</v>
+        <v>0.1025630087821812</v>
       </c>
       <c r="F81">
-        <v>-0.1638686081843633</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1495489713582167</v>
+      </c>
+      <c r="G81">
+        <v>0.04426633681286809</v>
+      </c>
+      <c r="H81">
+        <v>-0.02053030590286302</v>
+      </c>
+      <c r="I81">
+        <v>0.001044639217518866</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06421192570017603</v>
+        <v>0.05389472930852754</v>
       </c>
       <c r="C83">
-        <v>0.06538894311655466</v>
+        <v>-0.04585102200982229</v>
       </c>
       <c r="D83">
-        <v>0.04404277849026957</v>
+        <v>-0.0112936458204624</v>
       </c>
       <c r="E83">
-        <v>0.01688143024322556</v>
+        <v>-0.0242546205870568</v>
       </c>
       <c r="F83">
-        <v>0.02512628633039821</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04613489215368473</v>
+      </c>
+      <c r="G83">
+        <v>0.01637611858864249</v>
+      </c>
+      <c r="H83">
+        <v>0.05252534964200246</v>
+      </c>
+      <c r="I83">
+        <v>0.04251473503033538</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2241039587048105</v>
+        <v>0.2406249042003507</v>
       </c>
       <c r="C85">
-        <v>-0.02702695273012259</v>
+        <v>-0.080725774529481</v>
       </c>
       <c r="D85">
-        <v>0.08741433602452403</v>
+        <v>-0.009519754283057194</v>
       </c>
       <c r="E85">
-        <v>-0.05048732793715825</v>
+        <v>0.1113213169402331</v>
       </c>
       <c r="F85">
-        <v>-0.1709904992310616</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.191809662570055</v>
+      </c>
+      <c r="G85">
+        <v>0.04359793731322315</v>
+      </c>
+      <c r="H85">
+        <v>-0.003904591651858951</v>
+      </c>
+      <c r="I85">
+        <v>0.02771254083846407</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02877552580990729</v>
+        <v>0.02231580309431305</v>
       </c>
       <c r="C86">
-        <v>0.02373946680848944</v>
+        <v>-0.04641586801079722</v>
       </c>
       <c r="D86">
-        <v>0.05982100132611151</v>
+        <v>-0.003419719965671436</v>
       </c>
       <c r="E86">
-        <v>0.002020559920153099</v>
+        <v>0.01291507048798942</v>
       </c>
       <c r="F86">
-        <v>0.08505015438639503</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08650650386275752</v>
+      </c>
+      <c r="G86">
+        <v>0.0551613583027695</v>
+      </c>
+      <c r="H86">
+        <v>0.02091186518794999</v>
+      </c>
+      <c r="I86">
+        <v>0.0653951359901595</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.0191364908611316</v>
+        <v>0.02633125244204364</v>
       </c>
       <c r="C87">
-        <v>-0.02474005063130093</v>
+        <v>0.008003990683931964</v>
       </c>
       <c r="D87">
-        <v>-0.0365602009934366</v>
+        <v>0.0017752774946036</v>
       </c>
       <c r="E87">
-        <v>0.01324345365260995</v>
+        <v>-0.006753801728812139</v>
       </c>
       <c r="F87">
-        <v>0.1004269761525976</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1075222450450626</v>
+      </c>
+      <c r="G87">
+        <v>0.01392944488961395</v>
+      </c>
+      <c r="H87">
+        <v>-0.008306874599342555</v>
+      </c>
+      <c r="I87">
+        <v>0.04752413612708883</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.02228125197244918</v>
+        <v>0.03413430367011939</v>
       </c>
       <c r="C88">
-        <v>-0.0003292957363685108</v>
+        <v>-0.004340078857240754</v>
       </c>
       <c r="D88">
-        <v>0.01619997188410366</v>
+        <v>0.003490600834764964</v>
       </c>
       <c r="E88">
-        <v>-0.02425680668305405</v>
+        <v>0.01050607281581903</v>
       </c>
       <c r="F88">
-        <v>-0.005479100031927781</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.004246253051998028</v>
+      </c>
+      <c r="G88">
+        <v>-0.004718505302114767</v>
+      </c>
+      <c r="H88">
+        <v>0.04933029149812849</v>
+      </c>
+      <c r="I88">
+        <v>-6.002941480946837e-05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.09877349415317252</v>
+        <v>0.1264249658757453</v>
       </c>
       <c r="C89">
-        <v>-0.1844144932110421</v>
+        <v>0.3831750719084182</v>
       </c>
       <c r="D89">
-        <v>-0.3091112955591979</v>
+        <v>-0.05036004452442255</v>
       </c>
       <c r="E89">
-        <v>0.1228687354339197</v>
+        <v>-0.07782947148452504</v>
       </c>
       <c r="F89">
-        <v>0.02819925158963008</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02378357378500061</v>
+      </c>
+      <c r="G89">
+        <v>0.0919794190673838</v>
+      </c>
+      <c r="H89">
+        <v>0.04579229642618905</v>
+      </c>
+      <c r="I89">
+        <v>0.05812443823595365</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.07994131588001865</v>
+        <v>0.08621431781971363</v>
       </c>
       <c r="C90">
-        <v>-0.1685738758134489</v>
+        <v>0.3299811521552932</v>
       </c>
       <c r="D90">
-        <v>-0.2760133763190112</v>
+        <v>-0.02430170866114307</v>
       </c>
       <c r="E90">
-        <v>0.05403703753674035</v>
+        <v>-0.06711965486953646</v>
       </c>
       <c r="F90">
-        <v>0.04052265769889989</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.001396103370921389</v>
+      </c>
+      <c r="G90">
+        <v>0.08310009675549831</v>
+      </c>
+      <c r="H90">
+        <v>0.03181654474667179</v>
+      </c>
+      <c r="I90">
+        <v>0.01918012396014655</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2819191195592792</v>
+        <v>0.2829662535412518</v>
       </c>
       <c r="C91">
-        <v>-0.02578345756257222</v>
+        <v>-0.1027279057080207</v>
       </c>
       <c r="D91">
-        <v>0.1247317707341246</v>
+        <v>-0.01326490265058158</v>
       </c>
       <c r="E91">
-        <v>-0.05057017201652192</v>
+        <v>0.1227459532425097</v>
       </c>
       <c r="F91">
-        <v>-0.2642946835386964</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2658621398090703</v>
+      </c>
+      <c r="G91">
+        <v>0.0618977264510982</v>
+      </c>
+      <c r="H91">
+        <v>-0.04888646776298419</v>
+      </c>
+      <c r="I91">
+        <v>0.03572289973410575</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.1028094078348318</v>
+        <v>0.163182553226116</v>
       </c>
       <c r="C92">
-        <v>-0.1397712076976157</v>
+        <v>0.3479659864089268</v>
       </c>
       <c r="D92">
-        <v>-0.3158777252331176</v>
+        <v>-0.006374135969596904</v>
       </c>
       <c r="E92">
-        <v>0.03314327175116265</v>
+        <v>-0.09658828047265866</v>
       </c>
       <c r="F92">
-        <v>-0.04742382706361276</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1088752857138323</v>
+      </c>
+      <c r="G92">
+        <v>0.2391942628495075</v>
+      </c>
+      <c r="H92">
+        <v>0.09204795571189912</v>
+      </c>
+      <c r="I92">
+        <v>-0.07819219640398686</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.08087964353625511</v>
+        <v>0.1090281302403566</v>
       </c>
       <c r="C93">
-        <v>-0.1967139381955829</v>
+        <v>0.3927336333500592</v>
       </c>
       <c r="D93">
-        <v>-0.3371461174590452</v>
+        <v>-0.03850126457431613</v>
       </c>
       <c r="E93">
-        <v>0.07882071551316824</v>
+        <v>-0.1064055787990851</v>
       </c>
       <c r="F93">
-        <v>-0.02507428845428606</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.0328758784815197</v>
+      </c>
+      <c r="G93">
+        <v>0.02489102885175532</v>
+      </c>
+      <c r="H93">
+        <v>0.05196213178545276</v>
+      </c>
+      <c r="I93">
+        <v>-0.02532265423506697</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2765562281936531</v>
+        <v>0.3016233104802395</v>
       </c>
       <c r="C94">
-        <v>-0.07547008377448584</v>
+        <v>-0.01738832798703831</v>
       </c>
       <c r="D94">
-        <v>0.01024726963689205</v>
+        <v>-0.03322506787853508</v>
       </c>
       <c r="E94">
-        <v>-0.01557345697955008</v>
+        <v>0.1314332310439453</v>
       </c>
       <c r="F94">
-        <v>-0.232471249903631</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2692909547281739</v>
+      </c>
+      <c r="G94">
+        <v>0.1212889550272964</v>
+      </c>
+      <c r="H94">
+        <v>-0.184976730881821</v>
+      </c>
+      <c r="I94">
+        <v>0.02463344931023644</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1578311491744084</v>
+        <v>0.1289624197320953</v>
       </c>
       <c r="C95">
-        <v>0.03081337650742216</v>
+        <v>-0.07488035053401368</v>
       </c>
       <c r="D95">
-        <v>0.1090283240754081</v>
+        <v>-0.08381852249914146</v>
       </c>
       <c r="E95">
-        <v>0.05850192543418548</v>
+        <v>0.02983764007211532</v>
       </c>
       <c r="F95">
-        <v>-0.4543730524078031</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.07851950363072208</v>
+      </c>
+      <c r="G95">
+        <v>-0.2221410315676866</v>
+      </c>
+      <c r="H95">
+        <v>0.8673054847565729</v>
+      </c>
+      <c r="I95">
+        <v>-0.2944346166823207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2109134583263207</v>
+        <v>0.2204235991384571</v>
       </c>
       <c r="C98">
-        <v>-0.04924954518448438</v>
+        <v>0.05132909800868188</v>
       </c>
       <c r="D98">
-        <v>-0.03840998602670483</v>
+        <v>-0.06916148498226238</v>
       </c>
       <c r="E98">
-        <v>0.09007797260048871</v>
+        <v>-0.02486414201806207</v>
       </c>
       <c r="F98">
-        <v>0.05206586967257083</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1661480630078874</v>
+      </c>
+      <c r="G98">
+        <v>-0.3688802370067782</v>
+      </c>
+      <c r="H98">
+        <v>-0.114552779935077</v>
+      </c>
+      <c r="I98">
+        <v>-0.0328311618869034</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.007883483699241372</v>
+        <v>0.01574053279343558</v>
       </c>
       <c r="C101">
-        <v>-0.009959864914924633</v>
+        <v>-0.03177071316611953</v>
       </c>
       <c r="D101">
-        <v>0.07018555160006788</v>
+        <v>0.003493126757583169</v>
       </c>
       <c r="E101">
-        <v>-0.02458781882544099</v>
+        <v>0.03708182888311416</v>
       </c>
       <c r="F101">
-        <v>0.03336665887310905</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.07740768852538903</v>
+      </c>
+      <c r="G101">
+        <v>0.1055395384754069</v>
+      </c>
+      <c r="H101">
+        <v>0.01675507602025157</v>
+      </c>
+      <c r="I101">
+        <v>-0.1270608423716759</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.09608533061105698</v>
+        <v>0.1148547951690205</v>
       </c>
       <c r="C102">
-        <v>-0.01922694719661676</v>
+        <v>-0.03710977245682424</v>
       </c>
       <c r="D102">
-        <v>0.05631166945153691</v>
+        <v>0.003604615304784408</v>
       </c>
       <c r="E102">
-        <v>-0.03754866590388301</v>
+        <v>0.05870318509928019</v>
       </c>
       <c r="F102">
-        <v>-0.08645469884170968</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1074292854686653</v>
+      </c>
+      <c r="G102">
+        <v>0.02281164313125103</v>
+      </c>
+      <c r="H102">
+        <v>-0.002034829680970242</v>
+      </c>
+      <c r="I102">
+        <v>0.0355817618587231</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02202137246197677</v>
+        <v>0.02761311737307815</v>
       </c>
       <c r="C103">
-        <v>-0.007616735291905729</v>
+        <v>-0.01377491654353332</v>
       </c>
       <c r="D103">
-        <v>0.02159270812984982</v>
+        <v>0.008974054540189758</v>
       </c>
       <c r="E103">
-        <v>-0.01070873212166976</v>
+        <v>0.0212071527473941</v>
       </c>
       <c r="F103">
-        <v>-0.02261792842730667</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01956856051712275</v>
+      </c>
+      <c r="G103">
+        <v>0.01665638794571939</v>
+      </c>
+      <c r="H103">
+        <v>0.01030550888326908</v>
+      </c>
+      <c r="I103">
+        <v>0.01645394404755323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
